--- a/国服服务器列表.xlsx
+++ b/国服服务器列表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19250\Documents\GitHub\LoL-DIY-Programs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C1C7C4-CD46-44E0-A369-DCCBD98F6EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B298B4B-8013-4C7B-9184-CBD04A0EE9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8B27E1A9-18C2-4F7A-9B32-BAFDEA5E4F5B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>艾欧尼亚</t>
   </si>
@@ -285,6 +285,22 @@
   </si>
   <si>
     <t>CQ100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORCES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾欧尼亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ionia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比赛服（Tournament）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,9 +369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +409,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +515,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4D7EB-5F6A-4227-9205-BFADD3F1FF57}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,6 +1097,20 @@
         <v>70</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D30" xr:uid="{CEC4D7EB-5F6A-4227-9205-BFADD3F1FF57}"/>
   <phoneticPr fontId="1" type="noConversion"/>
